--- a/results/optimized_binary/20251123_235823_ana_optimized_binary_none/20251123_235823_ana_optimized_binary_none_importancia_consolidada.xlsx
+++ b/results/optimized_binary/20251123_235823_ana_optimized_binary_none/20251123_235823_ana_optimized_binary_none_importancia_consolidada.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +601,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.039</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.7719199999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0998</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0501</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.02306</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.05511999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -614,7 +637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -842,6 +865,38 @@
       </c>
       <c r="J6" t="n">
         <v>0.0263</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.35594</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09890000000000002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.26192</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06028000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06818</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0329</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.05904</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.06286</v>
       </c>
     </row>
   </sheetData>
@@ -855,7 +910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1123,6 +1178,44 @@
       </c>
       <c r="L6" t="n">
         <v>0.1619</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.38202</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06445999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.02745999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03816000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06322000000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.08820000000000001</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1601</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.0696</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.05954</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04724</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1324,6 +1417,32 @@
       </c>
       <c r="H6" t="n">
         <v>0.0027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.6453599999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07826</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.05590000000000001</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.12176</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03264</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06604</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1545,6 +1664,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.0946</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.37554</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.07390000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.15934</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.17882</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.06838</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.06945999999999999</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0746</v>
       </c>
     </row>
   </sheetData>
@@ -1558,7 +1706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1726,6 +1874,29 @@
       </c>
       <c r="G6" t="n">
         <v>0.0631</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.6475799999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.06258</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.18012</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.06812</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04160000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1739,7 +1910,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,6 +2058,26 @@
       </c>
       <c r="F6" t="n">
         <v>0.0037</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.9913399999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00138</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0048</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.00246</v>
       </c>
     </row>
   </sheetData>
@@ -1900,7 +2091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,6 +2299,35 @@
       </c>
       <c r="I6" t="n">
         <v>0.0095</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.63602</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.03004</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03775999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.00882</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.09124</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.02914000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2121,7 +2341,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2351,6 +2571,38 @@
         <v>0.0188</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÉDIA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
+        <v>0.6107799999999999</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0742</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.1088</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.04364</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0314</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.06887999999999998</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.02706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
